--- a/biology/Zoologie/Acraea_andromacha/Acraea_andromacha.xlsx
+++ b/biology/Zoologie/Acraea_andromacha/Acraea_andromacha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acraea andromacha est un Insecte Lépidoptère  de la famille des  Nymphalidae, la sous-famille des Heliconiinae (ou Acraeinae, selon les classification) et du genre Acraea. Il fait partie du sous-genre nominatif, du groupe de A. neobule.
 Avec ses espèces proches A. (A.) moluccana et meyeri, elle est une des rares espèces asiatiques d'Acraea, groupe essentiellement afrotropical.
@@ -512,87 +524,92 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Acraea andromacha a été nommé par Johan Christian Fabricius en 1775, à l'origine dans le genre Papilio.
-Synonymes :  Acraea entoria Godart, 1819 ; Acraea theodote Wallengren, 1860[1].
-Noms vernaculaires
-Acraea andromacha  se nomme en anglais Glasswing ou Small Greasy  .
-Sous-espèces décrites
-Acraea andromacha andromacha dans la Mer de Timor, nord de l'Australie jusqu'à Nouvelle-Galles du Sud
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acraea andromacha a été nommé par Johan Christian Fabricius en 1775, à l'origine dans le genre Papilio.
+Synonymes :  Acraea entoria Godart, 1819 ; Acraea theodote Wallengren, 1860.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acraea andromacha  se nomme en anglais Glasswing ou Small Greasy  .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces décrites</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acraea andromacha andromacha dans la Mer de Timor, nord de l'Australie jusqu'à Nouvelle-Galles du Sud
 Acraea andromacha sanderi Rothschild et Jordan, 1893 en Nouvelle-Guinée
 Acraea andromacha oenome Kirby, 1889 dans les Îles de la côte sud-est de la Papouasie-Nouvelle-Guinée
 Acraea andromacha indica Rober, 1885, de Sulawesi.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Acraea_andromacha</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de grands papillons (envergure de 60 mm) aux ailes antérieures translucides veinées de noir et aux ailes postérieures à damiers noirs et blancs bordée d'une bande foncée ornée d'une ligne de taches ovales blanches.
-Chenille
-La chenille, orange et marron, porte de longues épines noires (comme tous les Acraea).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Acraea_andromacha</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Acraea andromacha vole toute l'année.
-Plantes-hôtes
-Ses plantes-hôtes sont principalement des Passifloraceae   Passiflora alba, Passiflora cinnabarina, Passiflora foetida, Passiflora herbertiana, Passiflora mollissima, Passiflora suberosa, Passiflora subpeltata 'et Adenia populifolia', Adenia heterophylla, Hybanthus aurantiacus 'et Hybanthus enneaspermus'[1],[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -614,16 +631,232 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de grands papillons (envergure de 60 mm) aux ailes antérieures translucides veinées de noir et aux ailes postérieures à damiers noirs et blancs bordée d'une bande foncée ornée d'une ligne de taches ovales blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, orange et marron, porte de longues épines noires (comme tous les Acraea).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acraea andromacha vole toute l'année.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont principalement des Passifloraceae   Passiflora alba, Passiflora cinnabarina, Passiflora foetida, Passiflora herbertiana, Passiflora mollissima, Passiflora suberosa, Passiflora subpeltata 'et Adenia populifolia', Adenia heterophylla, Hybanthus aurantiacus 'et Hybanthus enneaspermus',.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acraea andromacha est présent en Australie et Nouvelle-Guinée et dans les îles environnantes[1].
-Biotope
-Il fréquente les lisières des forêts et les zones plantés d'arbustes[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acraea andromacha est présent en Australie et Nouvelle-Guinée et dans les îles environnantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente les lisières des forêts et les zones plantés d'arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acraea_andromacha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
